--- a/TraitTemplate_ver_4.xlsx
+++ b/TraitTemplate_ver_4.xlsx
@@ -732,7 +732,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="130">
   <si>
     <t>Class value and meaning of fourth class.</t>
   </si>
@@ -1110,6 +1110,18 @@
   </si>
   <si>
     <t>For Categorical: Class 13 - value = meaning</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>maize</t>
+  </si>
+  <si>
+    <t>bioversity</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1129,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1280,7 +1292,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1353,7 +1365,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2134,10 +2146,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2317,6 +2329,20 @@
       </c>
       <c r="AO7" s="10" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="B8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
